--- a/artfynd/A 3578-2026 artfynd.xlsx
+++ b/artfynd/A 3578-2026 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY6"/>
+  <dimension ref="A1:AY8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1310,6 +1310,213 @@
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>131263749</v>
+      </c>
+      <c r="B7" t="n">
+        <v>58256</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>103015</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Kungsfågel</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Regulus regulus</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Hjärtaboda, Hjärtaboda, Sk</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>448813</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6230068</v>
+      </c>
+      <c r="S7" t="n">
+        <v>30</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Östra Göinge</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Hjärsås</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Martin Kornhall</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Martin Kornhall</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>131263369</v>
+      </c>
+      <c r="B8" t="n">
+        <v>92466</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>6031</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Blomkålssvamp</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Sparassis crispa</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Wulfen:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Hjärtaboda, Hjärtaboda, Sk</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>448731</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6230010</v>
+      </c>
+      <c r="S8" t="n">
+        <v>40</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Östra Göinge</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Hjärsås</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2020-09-26</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2020-09-26</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Växte vid foten av gamla grova tallar</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Martin Kornhall</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Martin Kornhall</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 3578-2026 artfynd.xlsx
+++ b/artfynd/A 3578-2026 artfynd.xlsx
@@ -1416,7 +1416,7 @@
         <v>131263369</v>
       </c>
       <c r="B8" t="n">
-        <v>92466</v>
+        <v>92467</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>

--- a/artfynd/A 3578-2026 artfynd.xlsx
+++ b/artfynd/A 3578-2026 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY8"/>
+  <dimension ref="A1:AY9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1517,6 +1517,112 @@
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>131302060</v>
+      </c>
+      <c r="B9" t="n">
+        <v>96605</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2180</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Blåmossa</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Leucobryum glaucum</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Hedw.) Ångstr.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Hjärtaboda, Hjärtaboda, Sk</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>448906</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6230159</v>
+      </c>
+      <c r="S9" t="n">
+        <v>20</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Östra Göinge</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Hjärsås</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Ett ex 60 cm bred, 20-30 cm hög</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Martin Kornhall</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Martin Kornhall</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 3578-2026 artfynd.xlsx
+++ b/artfynd/A 3578-2026 artfynd.xlsx
@@ -1416,7 +1416,7 @@
         <v>131263369</v>
       </c>
       <c r="B8" t="n">
-        <v>92467</v>
+        <v>92470</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>131302060</v>
       </c>
       <c r="B9" t="n">
-        <v>96605</v>
+        <v>96608</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
